--- a/trainingOpts_sgdm.xlsx
+++ b/trainingOpts_sgdm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agata\Documents\POLSL\lme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agata\Desktop\DLapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB87EF-A626-47F7-ABBF-385814EF62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128233C7-221D-4078-A5D5-EC51FBCBF08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D4CBECA4-B109-4FEE-9DE3-D128AEF17948}"/>
   </bookViews>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA8E2FB-9112-4C7F-8996-332CE2AF6C28}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
